--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_NhậtQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_NhậtQuang.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.10.23.22\Nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BHSX09\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -695,6 +698,36 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -716,41 +749,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1058,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1090,43 +1093,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1171,7 +1174,7 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="78" t="s">
@@ -1191,16 +1194,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="78"/>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="78" t="s">
@@ -1209,7 +1212,7 @@
       <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="88" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
@@ -1222,7 +1225,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1254,13 +1257,13 @@
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
       <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
+      <c r="P5" s="87"/>
       <c r="Q5" s="78"/>
       <c r="R5" s="78"/>
-      <c r="S5" s="80"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
       <c r="V5" s="78"/>
@@ -1277,14 +1280,16 @@
       <c r="D6" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="88">
+      <c r="E6" s="71">
         <v>862631034804210</v>
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="65"/>
+      <c r="H6" s="65" t="s">
+        <v>76</v>
+      </c>
       <c r="I6" s="60"/>
       <c r="J6" s="53"/>
       <c r="K6" s="53"/>
@@ -1298,7 +1303,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="71" t="s">
+      <c r="V6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1316,7 +1321,7 @@
       <c r="D7" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="89">
+      <c r="E7" s="72">
         <v>861694030933277</v>
       </c>
       <c r="F7" s="65"/>
@@ -1337,7 +1342,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="72"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1366,7 +1371,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="72"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1395,7 +1400,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="72"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1424,7 +1429,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="72"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1453,7 +1458,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="72"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1482,7 +1487,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="71" t="s">
+      <c r="V12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1513,7 +1518,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="72"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1542,7 +1547,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="72"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1571,7 +1576,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="72"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1600,7 +1605,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="73"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2834,10 +2839,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="74" t="s">
+      <c r="V56" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="74">
+      <c r="W56" s="84">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2866,8 +2871,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2893,8 +2898,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4181,6 +4186,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4191,16 +4206,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4243,43 +4248,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4324,7 +4329,7 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="78" t="s">
@@ -4344,16 +4349,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="78"/>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="78" t="s">
@@ -4362,7 +4367,7 @@
       <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="88" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
@@ -4375,7 +4380,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4407,13 +4412,13 @@
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
       <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
+      <c r="P5" s="87"/>
       <c r="Q5" s="78"/>
       <c r="R5" s="78"/>
-      <c r="S5" s="80"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
       <c r="V5" s="78"/>
@@ -4430,7 +4435,7 @@
       <c r="D6" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="88">
+      <c r="E6" s="71">
         <v>866104028750985</v>
       </c>
       <c r="F6" s="51"/>
@@ -4451,7 +4456,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="71" t="s">
+      <c r="V6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4482,7 +4487,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="72"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4511,7 +4516,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="72"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4540,7 +4545,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="72"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4569,7 +4574,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="72"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4598,7 +4603,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="72"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4627,7 +4632,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="71" t="s">
+      <c r="V12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4658,7 +4663,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="72"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4687,7 +4692,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="72"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4716,7 +4721,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="68"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="72"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4745,7 +4750,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="68"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="73"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5979,10 +5984,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="74" t="s">
+      <c r="V56" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="74">
+      <c r="W56" s="84">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>1</v>
       </c>
@@ -6011,8 +6016,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6038,8 +6043,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7325,6 +7330,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7335,16 +7350,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7354,8 +7359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7386,43 +7391,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7467,7 +7472,7 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="78" t="s">
@@ -7487,16 +7492,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="78"/>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="78" t="s">
@@ -7505,7 +7510,7 @@
       <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="88" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
@@ -7518,7 +7523,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7550,13 +7555,13 @@
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
       <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
+      <c r="P5" s="87"/>
       <c r="Q5" s="78"/>
       <c r="R5" s="78"/>
-      <c r="S5" s="80"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
       <c r="V5" s="78"/>
@@ -7573,7 +7578,7 @@
       <c r="D6" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="89">
+      <c r="E6" s="72">
         <v>864811037206039</v>
       </c>
       <c r="F6" s="51" t="s">
@@ -7600,7 +7605,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="71" t="s">
+      <c r="V6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7631,7 +7636,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="72"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7660,7 +7665,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="72"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7689,7 +7694,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="72"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7718,7 +7723,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="72"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7747,7 +7752,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="72"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7776,7 +7781,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="71" t="s">
+      <c r="V12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7807,7 +7812,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="72"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7836,7 +7841,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="72"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7865,7 +7870,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="68"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="72"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7894,7 +7899,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="68"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="73"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9130,10 +9135,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="74" t="s">
+      <c r="V56" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="74">
+      <c r="W56" s="84">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9162,8 +9167,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9189,8 +9194,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10476,6 +10481,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10486,16 +10501,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10537,43 +10542,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10618,7 +10623,7 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="78" t="s">
@@ -10638,16 +10643,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="78"/>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="78" t="s">
@@ -10656,7 +10661,7 @@
       <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="88" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
@@ -10669,7 +10674,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10701,13 +10706,13 @@
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
       <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
+      <c r="P5" s="87"/>
       <c r="Q5" s="78"/>
       <c r="R5" s="78"/>
-      <c r="S5" s="80"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
       <c r="V5" s="78"/>
@@ -10737,7 +10742,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="71" t="s">
+      <c r="V6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -10768,7 +10773,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="72"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10797,7 +10802,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="72"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10826,7 +10831,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="72"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -10855,7 +10860,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="72"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10884,7 +10889,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="72"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10913,7 +10918,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="71" t="s">
+      <c r="V12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -10944,7 +10949,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="72"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10973,7 +10978,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="72"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11002,7 +11007,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="72"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11031,7 +11036,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="73"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12265,10 +12270,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="74" t="s">
+      <c r="V56" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="74">
+      <c r="W56" s="84">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12297,8 +12302,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12324,8 +12329,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -13612,6 +13617,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -13622,16 +13637,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_NhậtQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_NhậtQuang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="84">
   <si>
     <t>STT</t>
   </si>
@@ -236,9 +236,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>Còn BH</t>
-  </si>
-  <si>
     <t>Nhật Quang</t>
   </si>
   <si>
@@ -263,7 +260,31 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>a</t>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Nạp lại FW cho Thiết bị</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tuấn</t>
+  </si>
+  <si>
+    <t>Hỏng DIODE, nổ cầu chì</t>
+  </si>
+  <si>
+    <t>Thay DIODE và cầu chì</t>
+  </si>
+  <si>
+    <t>112.078.011.007,13368</t>
+  </si>
+  <si>
+    <t>04/11/2020</t>
+  </si>
+  <si>
+    <t>NQ.2.00.00002.180728</t>
   </si>
 </sst>
 </file>
@@ -704,30 +725,6 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -749,10 +746,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1061,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1093,43 +1114,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
+      <c r="A1" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="76"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="86"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1174,58 +1195,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="81" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="80" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1250,33 +1271,35 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="70"/>
+        <v>69</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" s="65" t="s">
         <v>47</v>
       </c>
@@ -1287,23 +1310,35 @@
       <c r="G6" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="60"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="60" t="s">
+        <v>81</v>
+      </c>
       <c r="J6" s="53"/>
       <c r="K6" s="53"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="L6" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="81" t="s">
+      <c r="V6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1315,9 +1350,11 @@
         <v>2</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="50"/>
+        <v>69</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" s="65" t="s">
         <v>47</v>
       </c>
@@ -1329,20 +1366,36 @@
         <v>66</v>
       </c>
       <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="I7" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>79</v>
+      </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="L7" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>80</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
+      <c r="O7" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="82"/>
+      <c r="V7" s="74"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1371,7 +1424,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="82"/>
+      <c r="V8" s="74"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1400,7 +1453,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="82"/>
+      <c r="V9" s="74"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1429,7 +1482,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="82"/>
+      <c r="V10" s="74"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1458,7 +1511,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="82"/>
+      <c r="V11" s="74"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1487,7 +1540,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="81" t="s">
+      <c r="V12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1518,7 +1571,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="82"/>
+      <c r="V13" s="74"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1547,7 +1600,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="82"/>
+      <c r="V14" s="74"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1576,7 +1629,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="82"/>
+      <c r="V15" s="74"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1605,7 +1658,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="83"/>
+      <c r="V16" s="75"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1724,7 +1777,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1756,7 +1809,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2033,7 +2086,7 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2193,7 +2246,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2257,7 +2310,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2839,10 +2892,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="84" t="s">
+      <c r="V56" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="84">
+      <c r="W56" s="76">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2871,8 +2924,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="85"/>
-      <c r="W57" s="85"/>
+      <c r="V57" s="77"/>
+      <c r="W57" s="77"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2898,8 +2951,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="86"/>
-      <c r="W58" s="86"/>
+      <c r="V58" s="78"/>
+      <c r="W58" s="78"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4186,6 +4239,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4196,16 +4259,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4217,7 +4270,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D6" sqref="D6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4248,43 +4301,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
+      <c r="A1" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="76"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="86"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4329,58 +4382,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="81" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="80" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4405,35 +4458,37 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="65" t="s">
         <v>70</v>
-      </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="65" t="s">
-        <v>71</v>
       </c>
       <c r="E6" s="71">
         <v>866104028750985</v>
@@ -4443,20 +4498,34 @@
         <v>66</v>
       </c>
       <c r="H6" s="65"/>
-      <c r="I6" s="60"/>
+      <c r="I6" s="60" t="s">
+        <v>81</v>
+      </c>
       <c r="J6" s="53"/>
       <c r="K6" s="53"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="L6" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="81" t="s">
+      <c r="V6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4487,7 +4556,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="82"/>
+      <c r="V7" s="74"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4516,7 +4585,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="82"/>
+      <c r="V8" s="74"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4545,7 +4614,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="82"/>
+      <c r="V9" s="74"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4574,7 +4643,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="82"/>
+      <c r="V10" s="74"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4603,7 +4672,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="82"/>
+      <c r="V11" s="74"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4632,7 +4701,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="81" t="s">
+      <c r="V12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4663,7 +4732,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="82"/>
+      <c r="V13" s="74"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4692,7 +4761,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="82"/>
+      <c r="V14" s="74"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4721,7 +4790,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="68"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="82"/>
+      <c r="V15" s="74"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4750,7 +4819,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="68"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="83"/>
+      <c r="V16" s="75"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4869,7 +4938,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5338,7 +5407,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5402,7 +5471,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5984,10 +6053,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="84" t="s">
+      <c r="V56" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="84">
+      <c r="W56" s="76">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>1</v>
       </c>
@@ -6016,8 +6085,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="85"/>
-      <c r="W57" s="85"/>
+      <c r="V57" s="77"/>
+      <c r="W57" s="77"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6043,8 +6112,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="86"/>
-      <c r="W58" s="86"/>
+      <c r="V58" s="78"/>
+      <c r="W58" s="78"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7330,6 +7399,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7340,16 +7419,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7359,8 +7428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7391,43 +7460,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
+      <c r="A1" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="76"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="86"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7472,58 +7541,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="81" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="80" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7548,33 +7617,35 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="70"/>
+        <v>69</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" s="65" t="s">
         <v>46</v>
       </c>
@@ -7582,17 +7653,17 @@
         <v>864811037206039</v>
       </c>
       <c r="F6" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="51" t="s">
         <v>72</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>73</v>
       </c>
       <c r="I6" s="60"/>
       <c r="J6" s="53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K6" s="53"/>
       <c r="L6" s="56"/>
@@ -7605,7 +7676,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="81" t="s">
+      <c r="V6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7636,7 +7707,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="82"/>
+      <c r="V7" s="74"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7665,7 +7736,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="82"/>
+      <c r="V8" s="74"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7694,7 +7765,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="82"/>
+      <c r="V9" s="74"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7723,7 +7794,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="82"/>
+      <c r="V10" s="74"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7752,7 +7823,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="82"/>
+      <c r="V11" s="74"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7781,7 +7852,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="81" t="s">
+      <c r="V12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7812,7 +7883,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="82"/>
+      <c r="V13" s="74"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7841,7 +7912,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="82"/>
+      <c r="V14" s="74"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7870,7 +7941,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="68"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="82"/>
+      <c r="V15" s="74"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7899,7 +7970,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="68"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="83"/>
+      <c r="V16" s="75"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8063,7 +8134,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -9135,10 +9206,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="84" t="s">
+      <c r="V56" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="84">
+      <c r="W56" s="76">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9167,8 +9238,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="85"/>
-      <c r="W57" s="85"/>
+      <c r="V57" s="77"/>
+      <c r="W57" s="77"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9194,8 +9265,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="86"/>
-      <c r="W58" s="86"/>
+      <c r="V58" s="78"/>
+      <c r="W58" s="78"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10481,6 +10552,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10491,16 +10572,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10542,43 +10613,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
+      <c r="A1" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="76"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="86"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10623,58 +10694,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="81" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="80" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10699,24 +10770,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -10742,7 +10813,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="81" t="s">
+      <c r="V6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -10773,7 +10844,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="82"/>
+      <c r="V7" s="74"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10802,7 +10873,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="82"/>
+      <c r="V8" s="74"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10831,7 +10902,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="82"/>
+      <c r="V9" s="74"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -10860,7 +10931,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="82"/>
+      <c r="V10" s="74"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10889,7 +10960,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="82"/>
+      <c r="V11" s="74"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10918,7 +10989,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="81" t="s">
+      <c r="V12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -10949,7 +11020,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="82"/>
+      <c r="V13" s="74"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10978,7 +11049,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="82"/>
+      <c r="V14" s="74"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11007,7 +11078,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="82"/>
+      <c r="V15" s="74"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11036,7 +11107,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="83"/>
+      <c r="V16" s="75"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12270,10 +12341,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="84" t="s">
+      <c r="V56" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="84">
+      <c r="W56" s="76">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12302,8 +12373,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="85"/>
-      <c r="W57" s="85"/>
+      <c r="V57" s="77"/>
+      <c r="W57" s="77"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12329,8 +12400,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="86"/>
-      <c r="W58" s="86"/>
+      <c r="V58" s="78"/>
+      <c r="W58" s="78"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -13617,6 +13688,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -13627,16 +13708,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
